--- a/python/week_report/week_report_model.xlsx
+++ b/python/week_report/week_report_model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\code-place\python\week_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月第一周" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
   <si>
     <t>瀚华互联网金融技术支持部工作周报</t>
   </si>
@@ -1152,30 +1152,6 @@
   </si>
   <si>
     <t>进度及说明</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>crm复投增量业绩报表查看，导出，定时核算脚本完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>crm散户入库工具功能修复渠道数据为空不能导入问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>crm线上手动执行用户T+2脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>crm更新导入指定渠道脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1942,6 +1918,39 @@
     <xf numFmtId="58" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1951,40 +1960,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1996,14 +1978,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2396,27 +2372,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="37"/>
@@ -2430,18 +2406,18 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2456,16 +2432,16 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="71">
         <v>1</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
@@ -2478,16 +2454,16 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="71">
         <v>2</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2500,16 +2476,16 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="71">
         <v>3</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="10">
         <v>42520</v>
       </c>
@@ -2524,16 +2500,16 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="71">
         <v>4</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="10">
         <v>42520</v>
       </c>
@@ -2546,16 +2522,16 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="71">
         <v>5</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="10">
         <v>42520</v>
       </c>
@@ -2566,16 +2542,16 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="71">
         <v>6</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="10">
         <v>42520</v>
       </c>
@@ -2588,16 +2564,16 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="71">
         <v>7</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="10">
         <v>42520</v>
       </c>
@@ -2610,16 +2586,16 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="71">
         <v>8</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="10">
         <v>42520</v>
       </c>
@@ -2630,16 +2606,16 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="71">
         <v>9</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="10">
         <v>42520</v>
       </c>
@@ -2650,16 +2626,16 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="71">
         <v>10</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="10">
         <v>42520</v>
       </c>
@@ -2670,16 +2646,16 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="72">
         <v>42520</v>
       </c>
@@ -2690,9 +2666,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="73" t="s">
         <v>33</v>
       </c>
@@ -2708,9 +2684,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="94"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="73" t="s">
         <v>34</v>
       </c>
@@ -2726,9 +2702,9 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="94"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="73" t="s">
         <v>35</v>
       </c>
@@ -2746,14 +2722,14 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="93" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="76">
         <v>42520</v>
       </c>
@@ -2766,9 +2742,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="94"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="73" t="s">
         <v>39</v>
       </c>
@@ -2786,14 +2762,14 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="93" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="76">
         <v>42521</v>
       </c>
@@ -2806,9 +2782,9 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="94"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="73" t="s">
         <v>42</v>
       </c>
@@ -2826,14 +2802,14 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="93" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="76">
         <v>42520</v>
       </c>
@@ -2846,10 +2822,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
@@ -2859,19 +2835,19 @@
       <c r="F24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="84" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="15">
         <v>1</v>
       </c>
@@ -2879,17 +2855,17 @@
         <v>49</v>
       </c>
       <c r="F25" s="71"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98" t="s">
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="98"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="15">
         <v>2</v>
       </c>
@@ -2897,37 +2873,37 @@
         <v>51</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="100"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="38">
         <v>1</v>
       </c>
@@ -2936,16 +2912,16 @@
       </c>
       <c r="F28" s="78"/>
       <c r="G28" s="79"/>
-      <c r="H28" s="96">
+      <c r="H28" s="91">
         <v>42528</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="38">
         <v>2</v>
       </c>
@@ -2954,16 +2930,16 @@
       </c>
       <c r="F29" s="78"/>
       <c r="G29" s="79"/>
-      <c r="H29" s="96">
+      <c r="H29" s="91">
         <v>42529</v>
       </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
       <c r="K29" s="23"/>
     </row>
     <row r="30" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="38">
         <v>3</v>
       </c>
@@ -2972,16 +2948,16 @@
       </c>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
       <c r="K30" s="23"/>
     </row>
     <row r="31" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="38">
         <v>4</v>
       </c>
@@ -2998,41 +2974,41 @@
       <c r="K31" s="23"/>
     </row>
     <row r="32" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="38">
         <v>5</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="101">
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90">
         <v>42533</v>
       </c>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
       <c r="K32" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="38">
         <v>6</v>
       </c>
-      <c r="E33" s="90" t="s">
+      <c r="E33" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="101">
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90">
         <v>42537</v>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
       <c r="K33" s="23" t="s">
         <v>62</v>
       </c>
@@ -3059,23 +3035,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="B27:C33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D15:D23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E4:G4"/>
@@ -3092,6 +3051,23 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="B27:C33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="K25:K26">
@@ -3129,15 +3105,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F4" s="46" t="s">
@@ -3157,7 +3133,7 @@
       </c>
     </row>
     <row r="5" spans="6:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="103" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="49" t="s">
@@ -3180,7 +3156,7 @@
       </c>
     </row>
     <row r="6" spans="6:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="F6" s="105"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="51">
         <v>1</v>
       </c>
@@ -3201,7 +3177,7 @@
       </c>
     </row>
     <row r="7" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F7" s="105"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="51">
         <v>2</v>
       </c>
@@ -3220,7 +3196,7 @@
       </c>
     </row>
     <row r="8" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F8" s="105"/>
+      <c r="F8" s="103"/>
       <c r="G8" s="51">
         <v>3</v>
       </c>
@@ -3239,7 +3215,7 @@
       </c>
     </row>
     <row r="9" spans="6:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F9" s="105"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="51">
         <v>4</v>
       </c>
@@ -3258,7 +3234,7 @@
       </c>
     </row>
     <row r="10" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F10" s="105"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="51">
         <v>5</v>
       </c>
@@ -3275,7 +3251,7 @@
       </c>
     </row>
     <row r="11" spans="6:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="F11" s="105"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="51">
         <v>6</v>
       </c>
@@ -3294,7 +3270,7 @@
       </c>
     </row>
     <row r="12" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F12" s="105"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="51">
         <v>7</v>
       </c>
@@ -3313,7 +3289,7 @@
       </c>
     </row>
     <row r="13" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F13" s="105"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="51">
         <v>8</v>
       </c>
@@ -3332,7 +3308,7 @@
       </c>
     </row>
     <row r="14" spans="6:12" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="F14" s="105"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="51">
         <v>9</v>
       </c>
@@ -3351,7 +3327,7 @@
       </c>
     </row>
     <row r="15" spans="6:12" ht="42" x14ac:dyDescent="0.15">
-      <c r="F15" s="105"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="51">
         <v>10</v>
       </c>
@@ -3370,7 +3346,7 @@
       </c>
     </row>
     <row r="16" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F16" s="105"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="51">
         <v>11</v>
       </c>
@@ -3389,7 +3365,7 @@
       </c>
     </row>
     <row r="17" spans="6:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="F17" s="105"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="51">
         <v>12</v>
       </c>
@@ -3408,7 +3384,7 @@
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F18" s="105"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="51">
         <v>13</v>
       </c>
@@ -3427,7 +3403,7 @@
       </c>
     </row>
     <row r="19" spans="6:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F19" s="105"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="51">
         <v>14</v>
       </c>
@@ -3446,7 +3422,7 @@
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F20" s="105"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="51">
         <v>15</v>
       </c>
@@ -3465,7 +3441,7 @@
       </c>
     </row>
     <row r="21" spans="6:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="49" t="s">
@@ -3477,16 +3453,16 @@
       <c r="I21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="103"/>
+      <c r="K21" s="105"/>
       <c r="L21" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="6:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="105"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="54">
         <v>1</v>
       </c>
@@ -3496,25 +3472,25 @@
       <c r="I22" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="104" t="s">
+      <c r="J22" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="104"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="69"/>
     </row>
     <row r="23" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F23" s="105"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="54">
         <v>2</v>
       </c>
       <c r="H23" s="55"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
       <c r="L23" s="70"/>
     </row>
     <row r="24" spans="6:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="103" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="56" t="s">
@@ -3523,139 +3499,144 @@
       <c r="H24" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
       <c r="L24" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="6:12" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="F25" s="105"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="57">
         <v>1</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="107">
+      <c r="I25" s="102">
         <v>42541</v>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="58" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="6:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F26" s="105"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="57"/>
       <c r="H26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="107">
+      <c r="I26" s="102">
         <v>42542</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
       <c r="L26" s="58"/>
     </row>
     <row r="27" spans="6:12" ht="41.25" x14ac:dyDescent="0.15">
-      <c r="F27" s="105"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="57">
         <v>2</v>
       </c>
       <c r="H27" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="102">
         <v>42544</v>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
       <c r="L27" s="66"/>
     </row>
     <row r="28" spans="6:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="F28" s="105"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="57">
         <v>3</v>
       </c>
       <c r="H28" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="102">
         <v>42544</v>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
       <c r="L28" s="66" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="6:12" ht="42" x14ac:dyDescent="0.15">
-      <c r="F29" s="105"/>
+      <c r="F29" s="103"/>
       <c r="G29" s="57">
         <v>4</v>
       </c>
       <c r="H29" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="107">
+      <c r="I29" s="102">
         <v>42544</v>
       </c>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
       <c r="L29" s="66"/>
     </row>
     <row r="30" spans="6:12" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="F30" s="105"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="57">
         <v>5</v>
       </c>
       <c r="H30" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="107">
+      <c r="I30" s="102">
         <v>42544</v>
       </c>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
       <c r="L30" s="66"/>
     </row>
     <row r="31" spans="6:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="F31" s="105"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="57">
         <v>6</v>
       </c>
       <c r="H31" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="107">
+      <c r="I31" s="102">
         <v>42544</v>
       </c>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
       <c r="L31" s="66"/>
     </row>
     <row r="32" spans="6:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F32" s="105"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="57">
         <v>6</v>
       </c>
       <c r="H32" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="107">
+      <c r="I32" s="102">
         <v>42544</v>
       </c>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
       <c r="L32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I32:K32"/>
@@ -3667,11 +3648,6 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
@@ -3699,25 +3675,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="88"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
       <c r="H3" s="37"/>
@@ -3729,10 +3705,10 @@
       </c>
     </row>
     <row r="4" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3753,8 +3729,8 @@
       </c>
     </row>
     <row r="5" spans="3:10" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="38">
         <v>1</v>
       </c>
@@ -3773,8 +3749,8 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="38">
         <v>2</v>
       </c>
@@ -3793,8 +3769,8 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="38">
         <v>3</v>
       </c>
@@ -3813,8 +3789,8 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="38">
         <v>6</v>
       </c>
@@ -3835,8 +3811,8 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="38">
         <v>7</v>
       </c>
@@ -3855,8 +3831,8 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="38">
         <v>8</v>
       </c>
@@ -3943,34 +3919,34 @@
         <v>3</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="45"/>
     </row>
     <row r="15" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="8">
         <v>1</v>
       </c>
@@ -3985,8 +3961,8 @@
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="8">
         <v>2</v>
       </c>
@@ -4001,8 +3977,8 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="8">
         <v>3</v>
       </c>
@@ -4017,8 +3993,8 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="3:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="8">
         <v>4</v>
       </c>
@@ -4033,8 +4009,8 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="8">
         <v>5</v>
       </c>
@@ -4087,7 +4063,7 @@
   <dimension ref="B3:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4105,16 +4081,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -4139,10 +4115,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -4163,86 +4139,54 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="10">
-        <v>43114</v>
-      </c>
-      <c r="H6" s="10">
-        <v>43115</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="10">
-        <v>43116</v>
-      </c>
-      <c r="H7" s="10">
-        <v>43116</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="10">
-        <v>43117</v>
-      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>43117</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="10">
-        <v>43118</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <v>43118</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="8">
         <v>5</v>
       </c>
@@ -4253,8 +4197,8 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="8">
         <v>6</v>
       </c>
@@ -4265,8 +4209,8 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="8">
         <v>7</v>
       </c>
@@ -4277,8 +4221,8 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="8">
         <v>8</v>
       </c>
@@ -4289,8 +4233,8 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="8">
         <v>9</v>
       </c>
@@ -4301,8 +4245,8 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="8">
         <v>10</v>
       </c>
@@ -4313,8 +4257,8 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="8"/>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
@@ -4323,8 +4267,8 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="8"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10"/>
@@ -4333,8 +4277,8 @@
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="8"/>
       <c r="E18" s="12"/>
       <c r="F18" s="10"/>
@@ -4343,8 +4287,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
       <c r="F19" s="10"/>
@@ -4353,8 +4297,8 @@
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="8"/>
       <c r="E20" s="11"/>
       <c r="F20" s="10"/>
@@ -4363,8 +4307,8 @@
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="10"/>
@@ -4373,8 +4317,8 @@
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="13"/>
       <c r="E22" s="11"/>
       <c r="F22" s="10"/>
@@ -4383,8 +4327,8 @@
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="13"/>
       <c r="E23" s="11"/>
       <c r="F23" s="10"/>
@@ -4393,10 +4337,10 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
@@ -4406,17 +4350,17 @@
       <c r="F24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="95"/>
       <c r="I24" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="15">
         <v>1</v>
       </c>
@@ -4427,28 +4371,28 @@
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
@@ -4459,8 +4403,8 @@
       <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
@@ -4471,8 +4415,8 @@
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="8">
         <v>3</v>
       </c>
@@ -4483,8 +4427,8 @@
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
@@ -4495,8 +4439,8 @@
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="8">
         <v>5</v>
       </c>
